--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1308571.197308417</v>
+        <v>1306319.117597209</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.9123239800305</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>88.3646269539356</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -865,25 +865,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>133.93412467028</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>34.12489344345566</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>29.76498982117775</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>298.093153032556</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.9786181363417</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175847845</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>387.3568991626943</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>78.78083674902027</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.31354443380414</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.27446886463795</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>41.74133133758795</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>226.3549379952701</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>103.8784673763411</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>38.61213096654825</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>93.07916359105504</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>106.9977768135395</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>4.019807611472472</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>25.52471385612599</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214399</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>281.6778446725259</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1767.87852028569</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653545</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653545</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y2" t="n">
-        <v>2182.266054653545</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686088</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064765</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080142</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
         <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
         <v>2446.503393068414</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.95903803985</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.95903803985</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.95903803985</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.95903803985</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.06909054194</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916659</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193526</v>
+        <v>1702.177096229576</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763052</v>
+        <v>1480.410480799103</v>
       </c>
       <c r="U4" t="n">
-        <v>2822.322864763052</v>
+        <v>1191.307613924746</v>
       </c>
       <c r="V4" t="n">
-        <v>2567.638376557165</v>
+        <v>936.6231257188592</v>
       </c>
       <c r="W4" t="n">
-        <v>2278.221206520204</v>
+        <v>936.6231257188592</v>
       </c>
       <c r="X4" t="n">
-        <v>2243.75161718338</v>
+        <v>936.6231257188592</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.95903803985</v>
+        <v>936.6231257188592</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1845.410930903097</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C5" t="n">
-        <v>1476.448413962685</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="D5" t="n">
-        <v>1118.182715355935</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1118.182715355935</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>707.1968105663273</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,22 +4565,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878909</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903097</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4759,16 +4759,16 @@
         <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.425065783662</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1416.425065783662</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X7" t="n">
-        <v>1416.425065783662</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y7" t="n">
-        <v>1195.632486640132</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278973</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211468</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>510.8106564211468</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,10 +4814,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>294.723245171594</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>144.6066057592583</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1849.239529033303</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1849.239529033303</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1627.472913602829</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1338.370046728473</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1083.685558522586</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>794.2683884856252</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X10" t="n">
-        <v>566.2788375876079</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y10" t="n">
-        <v>345.4862584440777</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8744207939063</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096652</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406112</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5233,16 +5233,16 @@
         <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1526.790206091931</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,10 +5279,10 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,22 +5291,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>408.9258559154851</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>408.9258559154851</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>261.012762333092</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694709</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311999</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>632.755700703293</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909572</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>334.7259677085641</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>187.8360202106537</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
@@ -5698,25 +5698,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614396</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614396</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,16 +6005,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041575</v>
+        <v>119.599202296584</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>119.599202296584</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="26">
@@ -6254,22 +6254,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6361,16 +6361,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,13 +7187,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753331</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929399</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>135.9796239950296</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>25.78270532855791</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63.36835372228668</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>72.44497470121381</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856364</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>179.1866975757047</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>55.74112246243955</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986318</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>6.257951202388114</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>4.506629716718237</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837044</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937977.6930837044</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
   </sheetData>
@@ -26323,7 +26323,7 @@
         <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140037</v>
@@ -26332,28 +26332,28 @@
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="K2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="L2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="M2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26479,7 +26479,7 @@
         <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1033797.747428548</v>
       </c>
       <c r="C6" t="n">
-        <v>294946.9982990443</v>
+        <v>294946.9982990442</v>
       </c>
       <c r="D6" t="n">
-        <v>294946.9982990442</v>
+        <v>294946.9982990444</v>
       </c>
       <c r="E6" t="n">
-        <v>47195.8798959596</v>
+        <v>47161.14197052379</v>
       </c>
       <c r="F6" t="n">
-        <v>372608.3417033153</v>
+        <v>372573.6037778794</v>
       </c>
       <c r="G6" t="n">
-        <v>372608.3417033154</v>
+        <v>372573.6037778798</v>
       </c>
       <c r="H6" t="n">
-        <v>372608.3417033154</v>
+        <v>372573.6037778797</v>
       </c>
       <c r="I6" t="n">
-        <v>372608.3417033156</v>
+        <v>372573.6037778797</v>
       </c>
       <c r="J6" t="n">
-        <v>155077.1393060379</v>
+        <v>155042.401380602</v>
       </c>
       <c r="K6" t="n">
-        <v>372608.3417033153</v>
+        <v>372573.6037778795</v>
       </c>
       <c r="L6" t="n">
-        <v>372608.3417033152</v>
+        <v>372573.6037778794</v>
       </c>
       <c r="M6" t="n">
-        <v>287553.3137678033</v>
+        <v>287518.5758423677</v>
       </c>
       <c r="N6" t="n">
-        <v>372608.3417033152</v>
+        <v>372573.6037778797</v>
       </c>
       <c r="O6" t="n">
-        <v>372608.3417033155</v>
+        <v>372573.6037778796</v>
       </c>
       <c r="P6" t="n">
-        <v>372608.3417033153</v>
+        <v>372573.6037778794</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26793,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207.8215176834501</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.9082648170719</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>55.83490066116192</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>191.5847619455815</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>324.9180517995052</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>112.8285726208975</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.85336204559565</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.5191465790171</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>270.4601319683927</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276503</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.65768380540938</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>220.7280629601512</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982882</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,19 +32072,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982885</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071787</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>188.4731159523453</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>82.88662398579226</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>302.0934576762699</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164529</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>302.0934576762701</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238455</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>45.87687150790087</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998953</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
